--- a/biology/Zoologie/Corée_marginée/Corée_marginée.xlsx
+++ b/biology/Zoologie/Corée_marginée/Corée_marginée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cor%C3%A9e_margin%C3%A9e</t>
+          <t>Corée_marginée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coreus marginatus
 La corée marginée, Coreus marginatus, est une espèce d'insectes hétéroptères, une punaise de la famille des Coreidae, de la sous-famille des Coreinae, de la tribu des Coreini et du genre Coreus. Elle est très commune en Europe.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cor%C3%A9e_margin%C3%A9e</t>
+          <t>Corée_marginée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,86 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Coreus marginatus a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Cimex marginatus. Elle a été transférée dans le genre Coreus par le zoologiste danois Johan Christian Fabricius en 1794[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Coreus marginatus a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Cimex marginatus. Elle a été transférée dans le genre Coreus par le zoologiste danois Johan Christian Fabricius en 1794.
 L'épithète marginatus se réfère aux marges importantes de l'abdomen. Coreus est dérivé du latin coriaceus, au sens de ressemblant au cuir.
-Synonymie
-Cimex marginatus Linné, 1758 Protonyme
-Mesocerus marginatus
-Noms vernaculaires
-Corée marginée,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Corée_marginée</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cor%C3%A9e_margin%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cimex marginatus Linné, 1758 Protonyme
+Mesocerus marginatus</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Corée_marginée</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cor%C3%A9e_margin%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Corée marginée,
 punaise brune,
 punaise des citrouilles,
 punaise de la courge,
@@ -528,74 +611,78 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Cor%C3%A9e_margin%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Corée_marginée</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cor%C3%A9e_margin%C3%A9e</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste des sous-espèces
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des sous-espèces
 Coreus marginatus marginatus (Linnaeus, 1758)
 Synonymie pour cette sous-espèce
-Cimex auriculatus De Geer, 1773 [2]
-Cimex rostratus Goeze, 1778 [3]
-Copium serratum Thunberg, 1825 [4]
-Coreus fundator Herrich-Schäffer, 1833 [5]
-Syromastes marginatus var. syriacus Blöte, 1935 [6]
-Syromastes longicornis Costa, 1842 [7]
-Coreus marginatus var. inermis Kolenati, 1845 [8]
+Cimex auriculatus De Geer, 1773 
+Cimex rostratus Goeze, 1778 
+Copium serratum Thunberg, 1825 
+Coreus fundator Herrich-Schäffer, 1833 
+Syromastes marginatus var. syriacus Blöte, 1935 
+Syromastes longicornis Costa, 1842 
+Coreus marginatus var. inermis Kolenati, 1845 
 Coreus marginatus orientalis (Kiritshenko, 1916)
 Synonymie pour cette sous-espèce
-Mesocerus marginatus orientalis Kiritshenko, 1916[9] Protonyme
-Mesocerus omoxys Kiritshenko, 1916 [10]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cor%C3%A9e_margin%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+Mesocerus marginatus orientalis Kiritshenko, 1916 Protonyme
+Mesocerus omoxys Kiritshenko, 1916 </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Corée_marginée</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cor%C3%A9e_margin%C3%A9e</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Formes adultes et juvéniles
@@ -603,69 +690,7 @@
 			Profil montrant l'efférence des glandes odorantes
 			Ouverture des élytres
 			Coreus marginatus ont entre les antennes deux petites saillies, appelées tubercules antennifères, qui peuvent être utilisées pour distinguer cette espèce d'autres espèces superficiellement similaires
-Il s'agit d'une punaise assez grande, de 13 à 15 mm (hors antennes et pattes), de couleur brune, au corps allongé ou ovale de forme très variée avec des épines sur la tête et le pronotum. Le pronotum est en forme d'écusson. Les antennes ont quatre articles, le dernier étant noir. Nombreuses nervures sur la membrane[11].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cor%C3%A9e_margin%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cor%C3%A9e_margin%C3%A9e</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Habitat et biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la rencontre sur diverses plantes du genre Rumex[11] (les oseilles, famille des Polygonaceae), près de l'eau, dans les haies, en lisière des forêts et dans les prairies humides. Dans les jardins, on peut souvent l'observer sur la rhubarbe. Hiverne à l'état adulte. Se nourrit de fruits ou de graines[12].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cor%C3%A9e_margin%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cor%C3%A9e_margin%C3%A9e</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Lutte biologique</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La corée marginée peut s'attaquer aux cucurbitacées. On peut s'en protéger par compagnonnage botanique en plantant près des courges au choix des répulsifs tels que la menthe, l'herbe aux chats (cataire), des Nasturtium ou des Tagetes (œillet d'Inde et rose d'Inde).
+Il s'agit d'une punaise assez grande, de 13 à 15 mm (hors antennes et pattes), de couleur brune, au corps allongé ou ovale de forme très variée avec des épines sur la tête et le pronotum. Le pronotum est en forme d'écusson. Les antennes ont quatre articles, le dernier étant noir. Nombreuses nervures sur la membrane.
 </t>
         </is>
       </c>
@@ -676,7 +701,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cor%C3%A9e_margin%C3%A9e</t>
+          <t>Corée_marginée</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -691,10 +716,78 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Habitat et biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la rencontre sur diverses plantes du genre Rumex (les oseilles, famille des Polygonaceae), près de l'eau, dans les haies, en lisière des forêts et dans les prairies humides. Dans les jardins, on peut souvent l'observer sur la rhubarbe. Hiverne à l'état adulte. Se nourrit de fruits ou de graines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Corée_marginée</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cor%C3%A9e_margin%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Lutte biologique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La corée marginée peut s'attaquer aux cucurbitacées. On peut s'en protéger par compagnonnage botanique en plantant près des courges au choix des répulsifs tels que la menthe, l'herbe aux chats (cataire), des Nasturtium ou des Tagetes (œillet d'Inde et rose d'Inde).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Corée_marginée</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cor%C3%A9e_margin%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe et Sibérie.
 </t>
